--- a/Green Function Method/SNR.xlsx
+++ b/Green Function Method/SNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\Green Function Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590800E-0D69-4DAB-BCED-3F8368575A2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C595314C-975D-45C4-B532-6042978519EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -34,6 +34,48 @@
   </si>
   <si>
     <t>SNR2</t>
+  </si>
+  <si>
+    <t>geo(dW, z)</t>
+  </si>
+  <si>
+    <t>(50, 200)</t>
+  </si>
+  <si>
+    <t>(100, 500)</t>
+  </si>
+  <si>
+    <t>(100, 400)</t>
+  </si>
+  <si>
+    <t>(100, 300)</t>
+  </si>
+  <si>
+    <t>(100, 200)</t>
+  </si>
+  <si>
+    <t>(100, 100)</t>
+  </si>
+  <si>
+    <t>(100, 150)</t>
+  </si>
+  <si>
+    <t>(50, 100)</t>
+  </si>
+  <si>
+    <t>(50, 300)</t>
+  </si>
+  <si>
+    <t>(50, 400)</t>
+  </si>
+  <si>
+    <t>(50, 500)</t>
+  </si>
+  <si>
+    <t>N = 7</t>
+  </si>
+  <si>
+    <t>(50, 150)</t>
   </si>
 </sst>
 </file>
@@ -49,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,9 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,15 +404,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A3:C13"/>
+      <selection activeCell="K13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -370,8 +437,26 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -381,8 +466,26 @@
       <c r="C3">
         <v>10.5065537592812</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>8.1874964478155494</v>
+      </c>
+      <c r="G3">
+        <v>30.6340974141592</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5.2308535707019397</v>
+      </c>
+      <c r="K3">
+        <v>9.5015830083535597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -392,8 +495,26 @@
       <c r="C4">
         <v>8.1044785086593603</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>11.5452035482238</v>
+      </c>
+      <c r="G4">
+        <v>42.168040861814902</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>8.8135881813457395</v>
+      </c>
+      <c r="K4">
+        <v>12.281741556699201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -403,8 +524,26 @@
       <c r="C5">
         <v>18.7397361946716</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>9.6482510699417006</v>
+      </c>
+      <c r="G5">
+        <v>32.384013421446902</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>10.7209072647561</v>
+      </c>
+      <c r="K5">
+        <v>19.950631377247301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -414,8 +553,26 @@
       <c r="C6">
         <v>16.650289042486801</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>18.526497713798701</v>
+      </c>
+      <c r="G6">
+        <v>84.484034322478905</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>3.8252392295250299</v>
+      </c>
+      <c r="K6">
+        <v>6.9408162889512903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -425,8 +582,26 @@
       <c r="C7">
         <v>25.060425716457701</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>9.4139031361265495</v>
+      </c>
+      <c r="G7">
+        <v>63.630819917325603</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>2.8423219294864501</v>
+      </c>
+      <c r="K7">
+        <v>4.3331347020987199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -436,8 +611,26 @@
       <c r="C8">
         <v>28.4645057903547</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>3.6276948821508102</v>
+      </c>
+      <c r="G8">
+        <v>15.5092349134295</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>2.5896886726221702</v>
+      </c>
+      <c r="K8">
+        <v>3.3431636449474298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -447,8 +640,26 @@
       <c r="C9">
         <v>29.183553529921902</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>25.745008946214099</v>
+      </c>
+      <c r="G9">
+        <v>65.841721605890001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>20.590928489471999</v>
+      </c>
+      <c r="K9">
+        <v>20.590928489471999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -458,8 +669,26 @@
       <c r="C10">
         <v>44.237079394783898</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>18.7397361946716</v>
+      </c>
+      <c r="G10">
+        <v>52.932344993456198</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>10.5065537592812</v>
+      </c>
+      <c r="K10">
+        <v>20.984196240869199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>19</v>
       </c>
@@ -469,8 +698,26 @@
       <c r="C11">
         <v>53.929496136719202</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>5.4396469180657396</v>
+      </c>
+      <c r="G11">
+        <v>12.950192997370999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>1.7393722034958701</v>
+      </c>
+      <c r="K11">
+        <v>1.87937581396097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>33</v>
       </c>
@@ -480,8 +727,26 @@
       <c r="C12" s="1">
         <v>131.199041124389</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>6.5319710703646603</v>
+      </c>
+      <c r="G12">
+        <v>19.3892460961079</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>2.16812540911415</v>
+      </c>
+      <c r="K12">
+        <v>3.1385438371677301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>55</v>
       </c>
@@ -491,8 +756,41 @@
       <c r="C13" s="1">
         <v>175.99784892234501</v>
       </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>6.97370234622674</v>
+      </c>
+      <c r="G13">
+        <v>27.173613314816301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>7.9137816540158701</v>
+      </c>
+      <c r="K13">
+        <v>8.5579316531121901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>26.2161966067926</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45.3430222581134</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
